--- a/微信自动发送数据/万柏林/excelfiles/太原市六城区空气质量累计日报排名充填.xlsx
+++ b/微信自动发送数据/万柏林/excelfiles/太原市六城区空气质量累计日报排名充填.xlsx
@@ -1009,6 +1009,16 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="0000FF00"/>
+        <color rgb="00FF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>